--- a/神经网络验证/神经网络方法汇总.xlsx
+++ b/神经网络验证/神经网络方法汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="31170" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>方法类型</t>
   </si>
@@ -25,6 +25,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ExactReach[72] </t>
     </r>
     <r>
@@ -41,6 +48,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">MaxSens[69] </t>
     </r>
     <r>
@@ -134,6 +148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="LMRoman10-Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>Reluplex [</t>
     </r>
     <r>
@@ -188,18 +208,166 @@
     <t>Planet [22] 2017
 method: formulate problem as sat pb</t>
   </si>
+  <si>
+    <t>NNV 2020</t>
+  </si>
+  <si>
+    <t>SymBox 2019</t>
+  </si>
+  <si>
+    <t>ERAN 2019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MaxSens </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+  </si>
+  <si>
+    <t>Ai2 2018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ExactReach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NSVerify </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+  </si>
+  <si>
+    <t>MIPVerify 2017</t>
+  </si>
+  <si>
+    <t>ILP 2016</t>
+  </si>
+  <si>
+    <t>nnenum 2020</t>
+  </si>
+  <si>
+    <t>VeriNet 2020</t>
+  </si>
+  <si>
+    <t>Neurify 2018</t>
+  </si>
+  <si>
+    <t>Fast-Lin 2018</t>
+  </si>
+  <si>
+    <t>Fast-Lip 2018</t>
+  </si>
+  <si>
+    <t>CROWN 2018</t>
+  </si>
+  <si>
+    <t>ReluVAL 2018</t>
+  </si>
+  <si>
+    <t>DLV 2017</t>
+  </si>
+  <si>
+    <t>Venus 2020</t>
+  </si>
+  <si>
+    <t>PeregriNN 2020</t>
+  </si>
+  <si>
+    <r>
+      <t>Reluplex [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>] 2017
+Marabou [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>] 2019</t>
+    </r>
+  </si>
+  <si>
+    <t>BaB 2018</t>
+  </si>
+  <si>
+    <t>Sherlock 2017</t>
+  </si>
+  <si>
+    <t>Planet 2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +383,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -229,29 +420,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,8 +502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,81 +525,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,6 +545,13 @@
       <name val="LMRoman10-Regular"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -387,31 +562,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,67 +724,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,91 +746,52 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,54 +806,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,17 +830,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,171 +873,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,24 +1397,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="35.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.5916666666667" customWidth="1"/>
-    <col min="5" max="5" width="38.75" customWidth="1"/>
-    <col min="6" max="6" width="47.5" customWidth="1"/>
-    <col min="7" max="7" width="62.625" customWidth="1"/>
-    <col min="8" max="8" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="27.275" customWidth="1"/>
+    <col min="5" max="5" width="25.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.4083333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="19.35" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="12.4916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:2">
@@ -1224,109 +1423,231 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" ht="39" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="39" customHeight="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="68" customHeight="1" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="68" customHeight="1" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="95" customHeight="1" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+    <row r="5" ht="95" customHeight="1" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" ht="31" customHeight="1"/>
-    <row r="7" ht="31" customHeight="1"/>
+    <row r="7" ht="31" customHeight="1" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" ht="26" customHeight="1" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="5:6">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="14" ht="14.25" spans="3:3">
+      <c r="C14" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/神经网络验证/神经网络方法汇总.xlsx
+++ b/神经网络验证/神经网络方法汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31170" windowHeight="12390"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,6 +85,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">NSVerify[40] </t>
     </r>
     <r>
@@ -219,6 +226,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">MaxSens </t>
     </r>
     <r>
@@ -237,6 +251,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ExactReach </t>
     </r>
     <r>
@@ -252,6 +273,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">NSVerify </t>
     </r>
     <r>
@@ -303,6 +331,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
       <t>Reluplex [</t>
     </r>
     <r>
@@ -362,9 +397,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -389,43 +424,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -434,8 +432,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,83 +531,38 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,25 +597,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,43 +735,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,109 +765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,25 +806,51 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -812,17 +873,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -839,32 +889,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,133 +923,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/神经网络验证/神经网络方法汇总.xlsx
+++ b/神经网络验证/神经网络方法汇总.xlsx
@@ -397,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -424,6 +424,13 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -432,11 +439,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,69 +483,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,6 +522,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -555,7 +555,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,31 +597,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,151 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,16 +816,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,32 +852,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,16 +875,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,19 +923,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,112 +944,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/神经网络验证/神经网络方法汇总.xlsx
+++ b/神经网络验证/神经网络方法汇总.xlsx
@@ -273,13 +273,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">NSVerify </t>
     </r>
     <r>
@@ -397,10 +390,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -431,6 +424,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -440,6 +486,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -448,21 +518,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,86 +554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,187 +590,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,6 +795,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,11 +840,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,54 +896,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -911,10 +904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,133 +916,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,8 +1427,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/神经网络验证/神经网络方法汇总.xlsx
+++ b/神经网络验证/神经网络方法汇总.xlsx
@@ -273,6 +273,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">NSVerify </t>
     </r>
     <r>
@@ -390,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -417,61 +424,47 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,9 +479,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,54 +516,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,187 +597,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,11 +821,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,8 +878,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,8 +887,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,36 +903,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -904,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,16 +923,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,119 +941,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,6 +1083,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1425,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1664,8 +1677,45 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="14" ht="14.25" spans="3:3">
-      <c r="C14" s="7"/>
+    <row r="12" spans="2:4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:4">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/神经网络验证/神经网络方法汇总.xlsx
+++ b/神经网络验证/神经网络方法汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -424,17 +424,59 @@
       <scheme val="major"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,23 +490,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,6 +537,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -486,83 +562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,13 +597,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +711,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,157 +753,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,6 +821,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -840,7 +864,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,26 +884,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,17 +903,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -911,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,133 +923,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1440,8 +1440,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
